--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1791098.657469148</v>
+        <v>1876482.996188739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6424900.026661034</v>
+        <v>6844408.570429713</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>111.9669764070332</v>
+        <v>68.55481538240082</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -823,13 +825,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -871,19 +873,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>218.0080577057887</v>
+        <v>112.9902420915522</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>53.172646779447</v>
       </c>
       <c r="Y5" t="n">
-        <v>98.65118146889967</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>139.5534052616321</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>143.1050649927616</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1142,13 +1144,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>327.2795695151308</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>26.01258982742474</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1370,7 +1372,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>326.0757217740437</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1379,13 +1381,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1613,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1622,7 +1624,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>250.3345146895614</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>334.1786701509614</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1844,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X19" t="n">
-        <v>173.9462411923802</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>146.1447286778228</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2488,7 +2490,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>11.12043047005107</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>125.4203831793923</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>97.60112162900057</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>27.2725509170203</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>48.26174345239642</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>128.200599769098</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -3001,7 +3003,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>12.44671185018609</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3247,10 +3249,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>180.49589024553</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.60112162900057</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3490,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.33599972314043</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.554365680750151</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>68.51355369736912</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3715,7 +3717,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3755,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2201430798706</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>51.58543740429393</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>212.1432039770657</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3977,25 +3979,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>132.7762170959737</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>221.4655660477363</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>103.0767555432924</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4150,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>77.34040729634106</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>662.7127542112578</v>
+        <v>1392.046023333888</v>
       </c>
       <c r="C2" t="n">
-        <v>235.8120242245579</v>
+        <v>1369.185697387592</v>
       </c>
       <c r="D2" t="n">
-        <v>122.7140682578577</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E2" t="n">
-        <v>100.7775324461193</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F2" t="n">
-        <v>79.69375467592363</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>549.9383681074144</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>1100.603903091853</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>1651.269438076291</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N2" t="n">
-        <v>1651.269438076291</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O2" t="n">
-        <v>1651.269438076291</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1487.898388547897</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>1082.561118502788</v>
+        <v>1811.894387625418</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>687.9211111614576</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981016</v>
+        <v>1238.586646145896</v>
       </c>
       <c r="L3" t="n">
-        <v>287.7093087981016</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825398</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="O3" t="n">
-        <v>1389.040378766978</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1760.765775599597</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>623.3523977951305</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>451.3798346740465</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4486,19 +4488,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4519,19 +4521,19 @@
         <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1764.398243894585</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1764.398243894585</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1764.398243894585</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>813.5183665071961</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>813.5183665071961</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1235.878926328994</v>
+        <v>1270.775797585523</v>
       </c>
       <c r="C5" t="n">
-        <v>1213.018600382698</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>789.7259795676982</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>767.7894437559598</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>746.7056659857641</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4577,7 +4579,7 @@
         <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
         <v>2107.354917580474</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.054543461766</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>1763.054543461766</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X5" t="n">
-        <v>1755.374948669918</v>
+        <v>1691.921027881758</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.727290620524</v>
+        <v>1690.624161877053</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q6" t="n">
         <v>1771.166545545054</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>964.3625747002551</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C7" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4756,19 +4758,19 @@
         <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894584</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1764.398243894584</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1623.435208276773</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X7" t="n">
-        <v>1380.871311722579</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y7" t="n">
-        <v>1154.528543412321</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.340168271051</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C8" t="n">
-        <v>1118.479842324756</v>
+        <v>915.1502218567329</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.22762555016</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>1077.291089738422</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,25 +4804,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
-        <v>2059.098288819458</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
         <v>2224.911252462377</v>
@@ -4829,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1570.164993359136</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1158.444994526883</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y8" t="n">
-        <v>1157.148128522177</v>
+        <v>1082.561118502788</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>323.6423572907505</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
+        <v>316.1957143288386</v>
+      </c>
+      <c r="L9" t="n">
+        <v>316.1957143288386</v>
+      </c>
+      <c r="M9" t="n">
         <v>751.8547856608809</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1302.520320645319</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>718.8967865794721</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>718.8967865794721</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>718.8967865794721</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>552.6885807323256</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>380.826806506886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>214.5698368011181</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>70.77356830927252</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4987,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1934.533291375449</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1652.821823983478</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1377.969420155991</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1135.405523601796</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>909.0627552915378</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1243.321127097312</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>913.9517111639343</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>490.6590903489346</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>64.68215049679215</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>64.68215049679215</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68215049679215</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5034084882711</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>124.5034084882711</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L11" t="n">
-        <v>924.945020886074</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>924.945020886074</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N11" t="n">
-        <v>1725.386633283877</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O11" t="n">
-        <v>2525.82824568168</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2876.618109965857</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>2480.226760266204</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>2068.506761433951</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1663.169491388842</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>608.7826918167198</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1409.224304214523</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>116.7886529253721</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68215049679215</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T13" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V13" t="n">
-        <v>1222.686253450462</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W13" t="n">
-        <v>947.8338496229746</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X13" t="n">
-        <v>705.2699530687797</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y13" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1997.201891670715</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C14" t="n">
-        <v>1570.301161684015</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D14" t="n">
-        <v>1147.008540869015</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1147.008540869015</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>721.8843590584156</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>317.5452966478642</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>64.68215049679215</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L14" t="n">
-        <v>865.123762894595</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M14" t="n">
-        <v>1665.565375292398</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>2466.006987690201</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3234.107524839607</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>3234.107524839607</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>3234.107524839607</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3234.107524839607</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2822.387526007355</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y14" t="n">
-        <v>2417.050255962245</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>608.7826918167198</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N15" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O15" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P15" t="n">
-        <v>1409.224304214523</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288.7612160464561</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>116.7886529253721</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>64.68215049679215</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>1504.397720842433</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="V16" t="n">
-        <v>1222.686253450462</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>947.8338496229746</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2699530687797</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>478.9271847585218</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5494,49 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.529878172021</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.529878172021</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X19" t="n">
-        <v>1411.826604240323</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.483835930065</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5835,19 +5837,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3751.878227437044</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>3579.90566431596</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D22" t="n">
-        <v>3416.588891442731</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3250.380685595584</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4967.51473223302</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4685.803264841049</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4410.950861013562</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>4168.386964459367</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>3942.044196149109</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>786.8947875232845</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C25" t="n">
-        <v>614.9222244022005</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D25" t="n">
-        <v>451.6054515289712</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>285.3972456818248</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>113.5354714563852</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
         <v>102.3027134058285</v>
@@ -6181,16 +6183,16 @@
         <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.81982492729</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W25" t="n">
-        <v>1445.967421099803</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.403524545608</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y25" t="n">
-        <v>977.0607562353503</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6232,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
         <v>3833.214576747414</v>
@@ -6312,7 +6314,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3638.57018700705</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="C28" t="n">
-        <v>3466.597623885966</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="D28" t="n">
-        <v>3466.597623885966</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="E28" t="n">
-        <v>3300.38941803882</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F28" t="n">
-        <v>3128.52764381338</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G28" t="n">
-        <v>2962.270674107612</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H28" t="n">
         <v>2934.722642878299</v>
@@ -6406,28 +6408,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>4139.765359144795</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W28" t="n">
-        <v>3864.912955317308</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X28" t="n">
-        <v>3864.912955317308</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y28" t="n">
-        <v>3638.57018700705</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="29">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1070.916298867338</v>
+        <v>985.454412532011</v>
       </c>
       <c r="C31" t="n">
-        <v>898.9437357462537</v>
+        <v>813.481849410927</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>813.481849410927</v>
       </c>
       <c r="E31" t="n">
         <v>683.9862940886057</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1503.646164133598</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1261.082267579403</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y31" t="n">
-        <v>1261.082267579403</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3867.159428741616</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C34" t="n">
-        <v>3695.186865620532</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408222</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>4897.962009497735</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U34" t="n">
-        <v>4617.77756099804</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V34" t="n">
-        <v>4336.066093606069</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W34" t="n">
-        <v>4336.066093606069</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X34" t="n">
-        <v>4093.502197051874</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y34" t="n">
-        <v>3867.159428741616</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.8257932127802</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="C37" t="n">
-        <v>697.8532300916962</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="D37" t="n">
-        <v>534.5364572184669</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="E37" t="n">
-        <v>368.3282513713204</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F37" t="n">
-        <v>368.3282513713204</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y37" t="n">
-        <v>869.8257932127802</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1125.089101572745</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991803</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
         <v>5115.135670291427</v>
@@ -7208,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>606.5662274551883</v>
+        <v>615.9842888225141</v>
       </c>
       <c r="C40" t="n">
-        <v>434.5936643341042</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="D40" t="n">
-        <v>271.2768914608749</v>
+        <v>444.0117257014301</v>
       </c>
       <c r="E40" t="n">
-        <v>271.2768914608749</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F40" t="n">
-        <v>271.2768914608749</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G40" t="n">
-        <v>271.2768914608749</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>1265.638861031707</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>1023.074964477512</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y40" t="n">
-        <v>796.7321961672538</v>
+        <v>806.1502575345799</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2170.315685371786</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.414955385085</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1943.23552968699</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2743.677142084793</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>3116.551189957705</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>3116.551189957705</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q41" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839607</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W41" t="n">
-        <v>3234.107524839607</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X41" t="n">
-        <v>2995.501319708425</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y41" t="n">
-        <v>2590.164049663315</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>272.4865562816963</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.8332607165451</v>
+        <v>324.1560104286538</v>
       </c>
       <c r="C43" t="n">
-        <v>399.860697595461</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="D43" t="n">
-        <v>236.5439247222317</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="E43" t="n">
-        <v>236.5439247222317</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="F43" t="n">
-        <v>64.68215049679215</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="G43" t="n">
-        <v>64.68215049679215</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>152.1834473075698</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U43" t="n">
-        <v>1787.469765512522</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V43" t="n">
-        <v>1505.758298120551</v>
+        <v>1258.081047832659</v>
       </c>
       <c r="W43" t="n">
-        <v>1230.905894293064</v>
+        <v>983.2286440051723</v>
       </c>
       <c r="X43" t="n">
-        <v>988.3419977388687</v>
+        <v>740.6647474509774</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.9992294286108</v>
+        <v>514.3219791407195</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>659.6733526114974</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>659.6733526114974</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>659.6733526114974</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>233.696412759355</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>99.57902175332094</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>99.57902175332094</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.632070870094</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.632070870094</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N44" t="n">
-        <v>2381.073683267897</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O44" t="n">
-        <v>3181.515295665699</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P44" t="n">
-        <v>3181.515295665699</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>1079.521716903027</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>272.4865562816963</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.928168679499</v>
+        <v>3914.532297476635</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1971.432406730804</v>
+        <v>1124.059229422212</v>
       </c>
       <c r="C46" t="n">
-        <v>1799.45984360972</v>
+        <v>952.0866663011282</v>
       </c>
       <c r="D46" t="n">
-        <v>1636.143070736491</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E46" t="n">
-        <v>1469.934864889344</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F46" t="n">
-        <v>1298.073090663905</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>1131.816120958137</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>1053.694497426479</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>1053.694497426479</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>1111.185825650637</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>1337.713426856474</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>1692.402748150895</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>2083.588543121146</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>2461.080053997181</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>2816.508182676945</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>3107.107394598846</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>3234.107524839607</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>3187.068911526781</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>3187.068911526781</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>3187.068911526781</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="U46" t="n">
-        <v>3187.068911526781</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V46" t="n">
-        <v>2905.35744413481</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="W46" t="n">
-        <v>2630.505040307323</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="X46" t="n">
-        <v>2387.941143753128</v>
+        <v>1540.567966444536</v>
       </c>
       <c r="Y46" t="n">
-        <v>2161.59837544287</v>
+        <v>1314.225198134278</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0440798263965</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>571.1852249800525</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,22 +8057,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958121</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>549.9687528290794</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8225,10 +8227,10 @@
         <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8292,7 +8294,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>183.4310877314655</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,10 +8303,10 @@
         <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>98.5227558077745</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8313,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8459,19 +8461,19 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>110.4525178970659</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>203.6125166681525</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>454.9370402678085</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>463.1564485244919</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>89.84547260829257</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>474.9037794053499</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8778,16 +8780,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>570.9395345973069</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>831.698770932124</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,28 +8929,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>119.7858681845732</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>813.250087789768</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,10 +9014,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>572.6932868960932</v>
+        <v>280.9020403556214</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1790155406098</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9878,16 +9880,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>967.5075822902267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,7 +10606,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>705.1634862205228</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,10 +10840,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
         <v>35.03264989479647</v>
@@ -10899,19 +10901,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>509.7471451685728</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11063,25 +11065,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>413.9200752313267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,16 +11144,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>232.4185269010014</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>831.6236617222298</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234435</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11300,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>356.1600067973677</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.2481384166263</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,13 +11381,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>232.4185269010014</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222298</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>96.55600091278916</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>44.55518005114416</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>73.42412869296885</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X19" t="n">
-        <v>66.19201639627275</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>131.237875336876</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>90.66318739594442</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>115.0857548899069</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4218616921006</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>36.34552401957694</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>149.2368932943109</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>59.64236734312294</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>90.66318739594442</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>134.7433409040149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>160.9917581079248</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>73.84475210955803</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25643,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>171.3826557640596</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25804,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>47.18544517283286</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>65.23940003763309</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>288.0967228965201</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296919</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>58.60684960120463</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.01789851058609</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437792.2527571017</v>
+        <v>581368.6116266078</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437792.2527571017</v>
+        <v>581368.6116266078</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590397.2766138676</v>
+        <v>590397.2766138675</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590397.2766138675</v>
+        <v>590397.2766138674</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>590397.2766138675</v>
+        <v>590397.2766138676</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>590397.2766138676</v>
+        <v>590397.2766138675</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437792.2527571018</v>
+        <v>581368.6116266078</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437792.2527571017</v>
+        <v>581368.6116266078</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>422270.934308093</v>
+      </c>
+      <c r="C2" t="n">
         <v>422270.9343080931</v>
       </c>
-      <c r="C2" t="n">
-        <v>422270.9343080929</v>
-      </c>
       <c r="D2" t="n">
-        <v>422270.9343080932</v>
+        <v>422270.934308093</v>
       </c>
       <c r="E2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519656</v>
       </c>
       <c r="F2" t="n">
-        <v>302152.8212019906</v>
+        <v>401240.9763519659</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746492</v>
       </c>
       <c r="H2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="I2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.0422746489</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="K2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="L2" t="n">
         <v>407472.042274649</v>
       </c>
       <c r="M2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="N2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>302152.8212019908</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="P2" t="n">
-        <v>302152.8212019909</v>
+        <v>401240.9763519656</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
         <v>15116.17365792744</v>
@@ -26448,16 +26450,16 @@
         <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20289.53728691355</v>
+        <v>20289.53728691352</v>
       </c>
       <c r="C6" t="n">
-        <v>206694.2707016506</v>
+        <v>206694.2707016508</v>
       </c>
       <c r="D6" t="n">
-        <v>206694.2707016509</v>
+        <v>206694.2707016507</v>
       </c>
       <c r="E6" t="n">
-        <v>166475.0235833581</v>
+        <v>102866.4175456015</v>
       </c>
       <c r="F6" t="n">
-        <v>241805.9747368201</v>
+        <v>310298.7051621627</v>
       </c>
       <c r="G6" t="n">
-        <v>185715.4066167513</v>
+        <v>306980.1843448106</v>
       </c>
       <c r="H6" t="n">
         <v>314605.8064282919</v>
       </c>
       <c r="I6" t="n">
-        <v>314605.8064282919</v>
+        <v>314605.806428292</v>
       </c>
       <c r="J6" t="n">
-        <v>169072.1364934753</v>
+        <v>169072.1364934755</v>
       </c>
       <c r="K6" t="n">
-        <v>314605.8064282918</v>
+        <v>314605.806428292</v>
       </c>
       <c r="L6" t="n">
         <v>314605.8064282918</v>
       </c>
       <c r="M6" t="n">
-        <v>251731.8694629182</v>
+        <v>141475.3152226524</v>
       </c>
       <c r="N6" t="n">
-        <v>314605.8064282919</v>
+        <v>314605.806428292</v>
       </c>
       <c r="O6" t="n">
-        <v>241805.9747368203</v>
+        <v>310298.7051621625</v>
       </c>
       <c r="P6" t="n">
-        <v>241805.9747368204</v>
+        <v>310298.7051621624</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>307.0927181998165</v>
+        <v>350.5048792244489</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -27442,7 +27444,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27543,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.13019988286422</v>
+        <v>127.1480154971007</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
+        <v>354.4301520644832</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>302.6327158757589</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27782,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>118.5577190788913</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>132.55047452758</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>272.5448156558531</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,13 +27864,13 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>93.5933704773629</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>72.75829274970205</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624788</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>527.4536661148499</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34945,10 +34947,10 @@
         <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,10 +35023,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>75.42597529544652</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>167.4878420635545</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>432.5378064344752</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>440.0596680121639</v>
+      </c>
+      <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>60.42551312270605</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>437.3284175951186</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>549.5965063837652</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>808.5268812099018</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>81.47382575195027</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>775.859128433744</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>549.5965063837652</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>886.8993927061638</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36598,16 +36600,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>930.2279594557806</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,7 +37326,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>666.8514437878999</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,10 +37560,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>376.6404523968807</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>808.5268812099018</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>318.5846449871364</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.12346381202826</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099018</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1876482.996188739</v>
+        <v>1875765.006073881</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760739</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>68.55481538240082</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -673,7 +673,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>112.9902420915522</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>252.7858021392462</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -907,13 +907,13 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>53.172646779447</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>51.58543740429392</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>143.1050649927616</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1141,7 +1141,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -1150,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>154.6054260348455</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,16 +1296,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760402</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477363</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,7 +1536,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1545,7 +1545,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1596,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>192.6878740372724</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>334.1786701509614</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1776,7 +1776,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>54.43435127852336</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868337</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -2055,7 +2055,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>218.7757544134943</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.65115387342335</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2295,10 +2295,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2484,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>192.2428599063885</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>125.4203831793923</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.60112162900057</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>128.200599769098</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>180.49589024553</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.60112162900057</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>71.33436743042817</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.554365680750151</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.89949249262175</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>51.58543740429393</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>221.4655660477363</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4140,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>103.0767555432924</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4188,10 +4188,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.046023333888</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.185697387592</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D2" t="n">
-        <v>1299.938409122541</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E2" t="n">
-        <v>873.9614692703988</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F2" t="n">
-        <v>448.8372874597989</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
         <v>44.49822504924753</v>
@@ -4330,28 +4330,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4375,7 +4375,7 @@
         <v>2217.231657670528</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.894387625418</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>1238.586646145896</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>1760.765775599597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1760.765775599597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>1760.765775599597</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>1760.765775599597</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.3523977951305</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>451.3798346740465</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>288.0630618008172</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>288.0630618008172</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
         <v>288.0630618008172</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002918</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754307</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>813.5183665071961</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>813.5183665071961</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.775797585523</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>843.8750675988227</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>824.622850824227</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1691.921027881758</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.624161877053</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M6" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="M6" t="n">
-        <v>669.8354755761777</v>
-      </c>
       <c r="N6" t="n">
-        <v>1220.501010560616</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>96.60472747782725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>96.60472747782725</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>938.0105478030287</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567329</v>
+        <v>1617.059004423102</v>
       </c>
       <c r="D8" t="n">
-        <v>895.8980050821372</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E8" t="n">
-        <v>873.9614692703988</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F8" t="n">
-        <v>448.8372874597989</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4804,52 +4804,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1899.61838738015</v>
+        <v>2068.744155457482</v>
       </c>
       <c r="X8" t="n">
-        <v>1487.898388547897</v>
+        <v>2061.064560665634</v>
       </c>
       <c r="Y8" t="n">
-        <v>1082.561118502788</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>323.7795368464006</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N11" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O11" t="n">
-        <v>4570.892110530337</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="P11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5132,7 +5132,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1189.39189135186</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>873.2535930642349</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>701.2810299431509</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G13" t="n">
-        <v>343.6417816305598</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H13" t="n">
         <v>199.8455131387141</v>
@@ -5226,25 +5226,25 @@
         <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2280.489972292118</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>2280.489972292118</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.183104807232</v>
+        <v>1585.304109645182</v>
       </c>
       <c r="W13" t="n">
-        <v>1842.330700979745</v>
+        <v>1310.451705817695</v>
       </c>
       <c r="X13" t="n">
-        <v>1599.766804425551</v>
+        <v>1067.8878092635</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.424036115293</v>
+        <v>873.2535930642349</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>896.2443403489199</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1900.530441767978</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254679</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405491</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5308,22 +5308,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>355.3041521238506</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N15" t="n">
-        <v>1444.619098596721</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O15" t="n">
-        <v>1444.619098596721</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P15" t="n">
-        <v>1444.619098596721</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>1011.396293177787</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
         <v>509.8987513363276</v>
@@ -5469,19 +5469,19 @@
         <v>2280.489972292118</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292118</v>
+        <v>2000.305523792422</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1945.321330581793</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1670.468926754306</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1427.905030200111</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>1201.562261889853</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,40 +5503,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>195.4640539534684</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4659.050190787244</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5551,16 +5551,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5703,13 +5703,13 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V19" t="n">
-        <v>2065.542080025265</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W19" t="n">
         <v>1844.556469506584</v>
@@ -5752,28 +5752,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5840,16 +5840,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>102.3027134058285</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>935.3163081599862</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4092158344085</v>
+        <v>763.3437450389022</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>600.0269721656729</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1594.388941736505</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>1351.82504518231</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>1125.482276872052</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.9189991784958</v>
+        <v>847.4138558574795</v>
       </c>
       <c r="C25" t="n">
-        <v>769.9464360574118</v>
+        <v>675.4412927363954</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1871.357373049115</v>
       </c>
       <c r="U25" t="n">
-        <v>2002.531292319261</v>
+        <v>1591.172924549419</v>
       </c>
       <c r="V25" t="n">
-        <v>1875.844036582501</v>
+        <v>1591.172924549419</v>
       </c>
       <c r="W25" t="n">
-        <v>1600.991632755014</v>
+        <v>1316.320520721932</v>
       </c>
       <c r="X25" t="n">
-        <v>1358.427736200819</v>
+        <v>1073.756624167738</v>
       </c>
       <c r="Y25" t="n">
-        <v>1132.084967890562</v>
+        <v>847.4138558574795</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +6241,7 @@
         <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P26" t="n">
         <v>4541.493855905342</v>
@@ -6305,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3250.380685595584</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3250.380685595584</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3250.380685595584</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3250.380685595584</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4092.726745831969</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>3817.874342004482</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>3575.310445450287</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3348.967677140029</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6539,25 +6539,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>985.454412532011</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>813.481849410927</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>813.481849410927</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.454412532011</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3250.380685595584</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C37" t="n">
-        <v>3250.380685595584</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D37" t="n">
-        <v>3250.380685595584</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E37" t="n">
-        <v>3250.380685595584</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F37" t="n">
-        <v>3078.518911370144</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G37" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1469.963367155077</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>964.4851292537592</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P39" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>615.9842888225141</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>444.0117257014301</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1032.493025844838</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.1502575345799</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>802.2843858155067</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
         <v>100.0769448789901</v>
@@ -7420,43 +7420,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949504</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4973.6457363812</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4752.720165425832</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.365256022244</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>4136.875841148494</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3740.484491448841</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M42" t="n">
-        <v>1156.063482855035</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N42" t="n">
-        <v>1156.063482855035</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.1560104286538</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1834473075698</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>152.1834473075698</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>152.1834473075698</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>152.1834473075698</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>152.1834473075698</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>152.1834473075698</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
@@ -7593,28 +7593,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2063.316311498426</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T43" t="n">
-        <v>1819.976963724326</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U43" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>1258.081047832659</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>983.2286440051723</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>740.6647474509774</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>514.3219791407195</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2429.413071721394</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2002.512341734694</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1579.219720919694</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.242781067552</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>728.1185992569519</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>323.7795368464006</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>815.5852528544891</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1745.210300473766</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2749.496401892824</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>3725.747460379525</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O44" t="n">
-        <v>4570.892110530337</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="P44" t="n">
-        <v>4886.290909067602</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
         <v>4886.290909067602</v>
@@ -7678,22 +7678,22 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2849.261436012924</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>3195.159613368996</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.532297476635</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1124.059229422212</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C46" t="n">
-        <v>952.0866663011282</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D46" t="n">
         <v>847.9687314089136</v>
@@ -7836,22 +7836,22 @@
         <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>2063.316311498426</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="U46" t="n">
-        <v>1783.131862998731</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="V46" t="n">
-        <v>1783.131862998731</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="W46" t="n">
-        <v>1783.131862998731</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X46" t="n">
-        <v>1540.567966444536</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y46" t="n">
-        <v>1314.225198134278</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>571.1852249800525</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>549.9687528290794</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8218,25 +8218,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>180.0440798263965</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8300,16 +8300,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>98.5227558077745</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>181.4456529820153</v>
       </c>
       <c r="P6" t="n">
         <v>577.9986543204228</v>
@@ -8318,7 +8318,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8461,13 +8461,13 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>110.4525178970659</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>463.1564485244919</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8704,16 +8704,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>843.3909491248942</v>
       </c>
       <c r="P11" t="n">
-        <v>474.9037794053499</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>119.7858681845732</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,22 +9014,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>280.9020403556214</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>129.8669649843445</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9251,22 +9251,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>657.8632399032651</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9889,10 +9889,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>625.4779643536372</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9953,19 +9953,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
@@ -10199,16 +10199,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>220.6341467432656</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10588,13 +10588,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1019.918210644103</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10834,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
@@ -10907,10 +10907,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>509.7471451685728</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>419.9591894246358</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10925,7 +10925,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>108.6376593882833</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11311,13 +11311,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>382.6985455853151</v>
       </c>
       <c r="P44" t="n">
-        <v>356.1600067973677</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,10 +11396,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869296919</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>31.39146658988295</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>73.42412869296885</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>224.460001439528</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>22.13019988286467</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -23952,7 +23952,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>53.32812537571778</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>148.8949699152516</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>48.66309438997052</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>153.4739695386591</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.66318739594442</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24618,7 +24618,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>36.34552401957694</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>59.64236734312294</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.66318739594442</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>207.5599852876232</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>160.9917581079248</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.42412869296925</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>47.18544517283286</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>73.42412869296919</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>58.60684960120463</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>590397.2766138676</v>
+        <v>590397.2766138675</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>590397.2766138674</v>
+        <v>590397.2766138675</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>590397.2766138676</v>
+        <v>590397.2766138675</v>
       </c>
     </row>
     <row r="13">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080932</v>
       </c>
       <c r="C2" t="n">
         <v>422270.9343080931</v>
       </c>
       <c r="D2" t="n">
-        <v>422270.934308093</v>
+        <v>422270.9343080931</v>
       </c>
       <c r="E2" t="n">
-        <v>401240.9763519656</v>
+        <v>401240.9763519657</v>
       </c>
       <c r="F2" t="n">
-        <v>401240.9763519659</v>
+        <v>401240.9763519658</v>
       </c>
       <c r="G2" t="n">
-        <v>407472.0422746492</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="H2" t="n">
-        <v>407472.042274649</v>
+        <v>407472.0422746491</v>
       </c>
       <c r="I2" t="n">
         <v>407472.0422746491</v>
       </c>
       <c r="J2" t="n">
-        <v>407472.0422746491</v>
+        <v>407472.042274649</v>
       </c>
       <c r="K2" t="n">
         <v>407472.0422746491</v>
@@ -26352,7 +26352,7 @@
         <v>407472.0422746491</v>
       </c>
       <c r="O2" t="n">
-        <v>401240.9763519657</v>
+        <v>401240.9763519659</v>
       </c>
       <c r="P2" t="n">
         <v>401240.9763519656</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26438,22 +26438,22 @@
         <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>14883.79308177073</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20289.53728691352</v>
+        <v>20289.53728691372</v>
       </c>
       <c r="C6" t="n">
         <v>206694.2707016508</v>
       </c>
       <c r="D6" t="n">
-        <v>206694.2707016507</v>
+        <v>206694.2707016508</v>
       </c>
       <c r="E6" t="n">
-        <v>102866.4175456015</v>
+        <v>102793.9004492011</v>
       </c>
       <c r="F6" t="n">
-        <v>310298.7051621627</v>
+        <v>310226.1880657622</v>
       </c>
       <c r="G6" t="n">
-        <v>306980.1843448106</v>
+        <v>306929.1536826262</v>
       </c>
       <c r="H6" t="n">
-        <v>314605.8064282919</v>
+        <v>314554.7757661077</v>
       </c>
       <c r="I6" t="n">
-        <v>314605.806428292</v>
+        <v>314554.7757661077</v>
       </c>
       <c r="J6" t="n">
-        <v>169072.1364934755</v>
+        <v>169021.1058312911</v>
       </c>
       <c r="K6" t="n">
-        <v>314605.806428292</v>
+        <v>314554.7757661077</v>
       </c>
       <c r="L6" t="n">
-        <v>314605.8064282918</v>
+        <v>314554.7757661075</v>
       </c>
       <c r="M6" t="n">
-        <v>141475.3152226524</v>
+        <v>141424.2845604681</v>
       </c>
       <c r="N6" t="n">
-        <v>314605.806428292</v>
+        <v>314554.7757661077</v>
       </c>
       <c r="O6" t="n">
-        <v>310298.7051621625</v>
+        <v>310226.1880657622</v>
       </c>
       <c r="P6" t="n">
-        <v>310298.7051621624</v>
+        <v>310226.188065762</v>
       </c>
     </row>
   </sheetData>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>350.5048792244489</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27447,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>127.1480154971007</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>162.8640785093685</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,13 +27627,13 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>354.4301520644832</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>118.5577190788913</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>272.5448156558531</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,7 +27861,7 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -27915,10 +27915,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>237.8220101678111</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.4739695386585</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>527.4536661148499</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35020,16 +35020,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M6" t="n">
-        <v>75.42597529544652</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="P6" t="n">
         <v>556.2278131155941</v>
@@ -35038,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>73.06155854104179</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35424,16 +35424,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>805.99998976887</v>
       </c>
       <c r="P11" t="n">
-        <v>437.3284175951186</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>81.47382575195027</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>94.10236418953517</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>634.6913501810429</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>197.5373662309376</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>982.4869477446711</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37554,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
@@ -37627,10 +37627,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>71.06229757805201</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38031,13 +38031,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>345.307586229291</v>
       </c>
       <c r="P44" t="n">
-        <v>318.5846449871364</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
